--- a/weibull/www/Weibull_converter_altscale1.xlsx
+++ b/weibull/www/Weibull_converter_altscale1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miked\Documents\GitHub\nmcuration\weibull\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F79C0F-D875-4535-AEF9-4DF9AABEF00B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A0140B-7BD4-4A9C-AE29-68D8773EB97B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C7BBC7DE-D003-4883-B318-2E15FF44FE98}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C7BBC7DE-D003-4883-B318-2E15FF44FE98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,10 @@
     <t>COPY data below</t>
   </si>
   <si>
-    <t>THIS CONVERTER DESIGNED FOR POWER LAW TERM IN WEIBULL SCALE, ln(-ln(1-p^0.1))</t>
+    <t>&lt;-- INSPECT X-Y VALUES for accuracy of match to plot</t>
   </si>
   <si>
-    <t>&lt;-- INSPECT X-Y VALUES for accuracy of match to plot</t>
+    <t>THIS CONVERTER DESIGNED FOR POWER LAW TERM IN WEIBULL SCALE, ln(-ln(1-p^0.08))</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,7 +540,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -575,229 +575,229 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <v>310.58901053902298</v>
+        <v>310.59619902156902</v>
       </c>
       <c r="B4" s="8">
-        <v>0.27180966325036499</v>
+        <v>0.41791626624342698</v>
       </c>
       <c r="C4" s="3">
         <f>A4</f>
-        <v>310.58901053902298</v>
+        <v>310.59619902156902</v>
       </c>
       <c r="D4" s="4">
-        <f>(1-EXP(-1*EXP(B4)))^10*100</f>
-        <v>4.3455404205518402</v>
+        <f>(1-EXP(-1*EXP(B4)))^(1/0.08)*100</f>
+        <v>4.5530799560632396</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>312.934691173918</v>
+        <v>313.061002431487</v>
       </c>
       <c r="B5" s="8">
-        <v>0.46729282576866699</v>
+        <v>0.60516595575835697</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C17" si="0">A5</f>
-        <v>312.934691173918</v>
+        <v>313.061002431487</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D17" si="1">(1-EXP(-1*EXP(B5)))^10*100</f>
-        <v>10.370996035425286</v>
+        <f t="shared" ref="D5:D17" si="1">(1-EXP(-1*EXP(B5)))^(1/0.08)*100</f>
+        <v>11.283146038514372</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>336.12139128782098</v>
+        <v>336.934696658387</v>
       </c>
       <c r="B6" s="8">
-        <v>0.58628257686676299</v>
+        <v>0.71619516714611597</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>336.12139128782098</v>
+        <v>336.934696658387</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="1"/>
-        <v>16.32974614012533</v>
+        <v>17.748906570917747</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>338.02348238073603</v>
+        <v>338.26803358523301</v>
       </c>
       <c r="B7" s="8">
-        <v>0.69110688140556298</v>
+        <v>0.808501553417319</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>338.02348238073603</v>
+        <v>338.26803358523301</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="1"/>
-        <v>23.211322427204241</v>
+        <v>24.652695203387523</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
-        <v>354.29867711122</v>
+        <v>354.59105312801103</v>
       </c>
       <c r="B8" s="8">
-        <v>0.77326647144948701</v>
+        <v>0.88778771550441304</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
-        <v>354.29867711122</v>
+        <v>354.59105312801103</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>29.627177162932334</v>
+        <v>31.592526626918609</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
-        <v>366.49988721982402</v>
+        <v>366.15163196891098</v>
       </c>
       <c r="B9" s="8">
-        <v>0.84975988286969195</v>
+        <v>0.95910595774228702</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
-        <v>366.49988721982402</v>
+        <v>366.15163196891098</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>36.281585283987084</v>
+        <v>38.467204745081851</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <v>387.77609805493699</v>
+        <v>388.89615787662501</v>
       </c>
       <c r="B10" s="8">
-        <v>0.926253294289897</v>
+        <v>1.03316830869953</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
-        <v>387.77609805493699</v>
+        <v>388.89615787662501</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>43.412487021856677</v>
+        <v>46.014887399494555</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
-        <v>390.704723515007</v>
+        <v>389.67881133728002</v>
       </c>
       <c r="B11" s="8">
-        <v>0.99991361639824194</v>
+        <v>1.0964614621565301</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
-        <v>390.704723515007</v>
+        <v>389.67881133728002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>50.518720108735316</v>
+        <v>52.592292937330612</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
-        <v>395.88314004260002</v>
+        <v>396.37729295470302</v>
       </c>
       <c r="B12" s="8">
-        <v>1.0707408491947199</v>
+        <v>1.1624487015177001</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
-        <v>395.88314004260002</v>
+        <v>396.37729295470302</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>57.359581547719586</v>
+        <v>59.369010218050413</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>402.64208250290199</v>
+        <v>403.9556766124</v>
       </c>
       <c r="B13" s="8">
-        <v>1.1500673499267899</v>
+        <v>1.2363538379129</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
-        <v>402.64208250290199</v>
+        <v>403.9556766124</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>64.776516744171772</v>
+        <v>66.623038589512475</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>426.01643577598401</v>
+        <v>425.84146566382702</v>
       </c>
       <c r="B14" s="8">
-        <v>1.22939385065885</v>
+        <v>1.3156614383493599</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="0"/>
-        <v>426.01643577598401</v>
+        <v>425.84146566382702</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="1"/>
-        <v>71.685627273330141</v>
+        <v>73.754825920319178</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <v>436.56220800971897</v>
+        <v>437.273181104412</v>
       </c>
       <c r="B15" s="8">
-        <v>1.33421815519765</v>
+        <v>1.4080535780180501</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>436.56220800971897</v>
+        <v>437.273181104412</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="1"/>
-        <v>79.69769867662761</v>
+        <v>80.941825356989241</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
-        <v>479.61356252660499</v>
+        <v>479.54575875379601</v>
       </c>
       <c r="B16" s="8">
-        <v>1.4503748169838899</v>
+        <v>1.5217911675428999</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="0"/>
-        <v>479.61356252660499</v>
+        <v>479.54575875379601</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="1"/>
-        <v>86.800635278085338</v>
+        <v>87.915563605162276</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
-        <v>513.21587862334695</v>
+        <v>515.22615510914102</v>
       </c>
       <c r="B17" s="8">
-        <v>1.6543572474377699</v>
+        <v>1.7066469080448301</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>513.21587862334695</v>
+        <v>515.22615510914102</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="1"/>
-        <v>94.772180078935591</v>
+        <v>95.060570045861198</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
